--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386C5775-E4A2-48A6-AF57-A0AF353B49ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8F127D-BE4A-42AD-9643-3FC3D1D19876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Nama</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Terlambat</t>
+  </si>
+  <si>
+    <t>Solusi :</t>
+  </si>
+  <si>
+    <t>Masalah :</t>
   </si>
 </sst>
 </file>
@@ -101,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -190,29 +196,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -243,6 +299,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,8 +602,8 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,40 +616,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -583,153 +657,153 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="I6" s="12" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>23</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>24</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>25</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>26</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="I7" s="12" t="s">
+      <c r="G7" s="8"/>
+      <c r="I7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>23</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>23</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>25</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>29</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="I8" s="16" t="s">
+      <c r="G8" s="8"/>
+      <c r="I8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="21" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -796,20 +870,20 @@
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -876,20 +950,20 @@
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -956,20 +1030,20 @@
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -1036,20 +1110,20 @@
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -1116,20 +1190,20 @@
       <c r="N36" s="4"/>
     </row>
     <row r="37" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -1196,164 +1270,168 @@
       <c r="N41" s="4"/>
     </row>
     <row r="42" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="3"/>
+      <c r="A43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="23"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="25"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="25"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="25"/>
     </row>
     <row r="47" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="25"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="3"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="25"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="25"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="25"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
